--- a/xlsx/country_comparison/top_tax_all_share_various.xlsx
+++ b/xlsx/country_comparison/top_tax_all_share_various.xlsx
@@ -454,7 +454,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -484,7 +484,7 @@
         <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.754855071318372</v>
+        <v>0.754180914635801</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -498,7 +498,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0480768816457683</v>
+        <v>0.0480768816457684</v>
       </c>
       <c r="C3" t="n">
         <v>0.02852787093506</v>
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.641188431291775</v>
+        <v>0.641501546421187</v>
       </c>
       <c r="C5" t="n">
         <v>0.663594295554775</v>
@@ -616,7 +616,7 @@
         <v>0.550394111458431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.756622372880961</v>
+        <v>0.759131699735939</v>
       </c>
       <c r="M5" t="n">
         <v>0.816920760799125</v>

--- a/xlsx/country_comparison/top_tax_all_share_various.xlsx
+++ b/xlsx/country_comparison/top_tax_all_share_various.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 1% to finance global poverty reduction
 (Additional 15% tax on income over [$120k/year in PPP])</t>
   </si>
   <si>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Percentage of GDP transferred abroad in top 1% tax</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 3% to finance global poverty reduction
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
